--- a/эксель/Пряники.xlsx
+++ b/эксель/Пряники.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2a020ae5d501267d/Рабочий стол/КультКодСайт/эксель/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danil\Locker\Proga\CultCode\эксель\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_AD4DF75460589B3ACB7284451F5D7C2A5ADEDD97" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4039C858-AFD1-4743-A044-1B33770CEF73}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB47E660-65EC-4082-8EC9-34BA35092ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>Музей истории полиграфии и книгоиздания МГУП имени Ивана Федорова</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>mus_dk_obshestvo_slepih</t>
+  </si>
+  <si>
+    <t>фото нет</t>
   </si>
 </sst>
 </file>
@@ -508,203 +511,246 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
